--- a/processed_ICD_codes/Schnitzer_et_al_2011_ICD_crossmapping_for_appendix_with_icd9cm_codes.xlsx
+++ b/processed_ICD_codes/Schnitzer_et_al_2011_ICD_crossmapping_for_appendix_with_icd9cm_codes.xlsx
@@ -65,7 +65,7 @@
     <t xml:space="preserve">V71.81</t>
   </si>
   <si>
-    <t xml:space="preserve">NA</t>
+    <t xml:space="preserve">N/A</t>
   </si>
   <si>
     <t xml:space="preserve">No ICD-9 code for Observation for abuse/neglect</t>
@@ -353,13 +353,13 @@
     <t xml:space="preserve">comments_icd9</t>
   </si>
   <si>
-    <t xml:space="preserve">icd_10</t>
-  </si>
-  <si>
     <t xml:space="preserve">comments_icd10</t>
   </si>
   <si>
     <t xml:space="preserve">767</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
   </si>
   <si>
     <t xml:space="preserve">P10-P15,P52.4,P52.6,P52.8,P52.9</t>
@@ -1939,20 +1939,22 @@
         <v>111</v>
       </c>
       <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>112</v>
-      </c>
-      <c r="E1" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C2"/>
+        <v>113</v>
+      </c>
+      <c r="C2" t="s">
+        <v>114</v>
+      </c>
       <c r="D2" t="s">
         <v>115</v>
       </c>
@@ -1962,190 +1964,987 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C3"/>
+        <v>113</v>
+      </c>
+      <c r="C3" t="s">
+        <v>114</v>
+      </c>
       <c r="D3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B4" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C4" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D4" t="s">
-        <v>123</v>
-      </c>
-      <c r="E4"/>
+        <v>115</v>
+      </c>
+      <c r="E4" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="B5" t="s">
-        <v>124</v>
-      </c>
-      <c r="C5"/>
+        <v>113</v>
+      </c>
+      <c r="C5" t="s">
+        <v>114</v>
+      </c>
       <c r="D5" t="s">
-        <v>125</v>
-      </c>
-      <c r="E5"/>
+        <v>115</v>
+      </c>
+      <c r="E5" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="B6" t="s">
-        <v>126</v>
-      </c>
-      <c r="C6"/>
+        <v>113</v>
+      </c>
+      <c r="C6" t="s">
+        <v>114</v>
+      </c>
       <c r="D6" t="s">
-        <v>127</v>
-      </c>
-      <c r="E6"/>
+        <v>115</v>
+      </c>
+      <c r="E6" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="B7" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="C7" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="D7" t="s">
-        <v>131</v>
-      </c>
-      <c r="E7"/>
+        <v>118</v>
+      </c>
+      <c r="E7" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="B8" t="s">
-        <v>132</v>
-      </c>
-      <c r="C8"/>
+        <v>117</v>
+      </c>
+      <c r="C8" t="s">
+        <v>114</v>
+      </c>
       <c r="D8" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="E8" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="B9" t="s">
-        <v>135</v>
-      </c>
-      <c r="C9"/>
+        <v>117</v>
+      </c>
+      <c r="C9" t="s">
+        <v>114</v>
+      </c>
       <c r="D9" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="E9" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="B10" t="s">
-        <v>138</v>
-      </c>
-      <c r="C10"/>
+        <v>117</v>
+      </c>
+      <c r="C10" t="s">
+        <v>114</v>
+      </c>
       <c r="D10" t="s">
-        <v>139</v>
-      </c>
-      <c r="E10"/>
+        <v>118</v>
+      </c>
+      <c r="E10" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="B11" t="s">
-        <v>140</v>
-      </c>
-      <c r="C11"/>
+        <v>117</v>
+      </c>
+      <c r="C11" t="s">
+        <v>114</v>
+      </c>
       <c r="D11" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
       <c r="E11" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="B12" t="s">
-        <v>143</v>
-      </c>
-      <c r="C12"/>
+        <v>121</v>
+      </c>
+      <c r="C12" t="s">
+        <v>122</v>
+      </c>
       <c r="D12" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="E12" t="s">
-        <v>145</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="B13" t="s">
-        <v>146</v>
-      </c>
-      <c r="C13"/>
+        <v>124</v>
+      </c>
+      <c r="C13" t="s">
+        <v>114</v>
+      </c>
       <c r="D13" t="s">
-        <v>147</v>
-      </c>
-      <c r="E13"/>
+        <v>125</v>
+      </c>
+      <c r="E13" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="B14" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="C14" t="s">
-        <v>150</v>
+        <v>114</v>
       </c>
       <c r="D14" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="E14" t="s">
-        <v>152</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>128</v>
+      </c>
+      <c r="B15" t="s">
+        <v>129</v>
+      </c>
+      <c r="C15" t="s">
+        <v>130</v>
+      </c>
+      <c r="D15" t="s">
+        <v>131</v>
+      </c>
+      <c r="E15" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>128</v>
+      </c>
+      <c r="B16" t="s">
+        <v>129</v>
+      </c>
+      <c r="C16" t="s">
+        <v>130</v>
+      </c>
+      <c r="D16" t="s">
+        <v>131</v>
+      </c>
+      <c r="E16" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>128</v>
+      </c>
+      <c r="B17" t="s">
+        <v>129</v>
+      </c>
+      <c r="C17" t="s">
+        <v>130</v>
+      </c>
+      <c r="D17" t="s">
+        <v>131</v>
+      </c>
+      <c r="E17" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>128</v>
+      </c>
+      <c r="B18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C18" t="s">
+        <v>130</v>
+      </c>
+      <c r="D18" t="s">
+        <v>131</v>
+      </c>
+      <c r="E18" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>128</v>
+      </c>
+      <c r="B19" t="s">
+        <v>129</v>
+      </c>
+      <c r="C19" t="s">
+        <v>130</v>
+      </c>
+      <c r="D19" t="s">
+        <v>131</v>
+      </c>
+      <c r="E19" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>132</v>
+      </c>
+      <c r="B20" t="s">
+        <v>132</v>
+      </c>
+      <c r="C20" t="s">
+        <v>114</v>
+      </c>
+      <c r="D20" t="s">
+        <v>133</v>
+      </c>
+      <c r="E20" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>132</v>
+      </c>
+      <c r="B21" t="s">
+        <v>132</v>
+      </c>
+      <c r="C21" t="s">
+        <v>114</v>
+      </c>
+      <c r="D21" t="s">
+        <v>133</v>
+      </c>
+      <c r="E21" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>132</v>
+      </c>
+      <c r="B22" t="s">
+        <v>132</v>
+      </c>
+      <c r="C22" t="s">
+        <v>114</v>
+      </c>
+      <c r="D22" t="s">
+        <v>133</v>
+      </c>
+      <c r="E22" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>135</v>
+      </c>
+      <c r="B23" t="s">
+        <v>135</v>
+      </c>
+      <c r="C23" t="s">
+        <v>114</v>
+      </c>
+      <c r="D23" t="s">
+        <v>136</v>
+      </c>
+      <c r="E23" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>135</v>
+      </c>
+      <c r="B24" t="s">
+        <v>135</v>
+      </c>
+      <c r="C24" t="s">
+        <v>114</v>
+      </c>
+      <c r="D24" t="s">
+        <v>136</v>
+      </c>
+      <c r="E24" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>135</v>
+      </c>
+      <c r="B25" t="s">
+        <v>135</v>
+      </c>
+      <c r="C25" t="s">
+        <v>114</v>
+      </c>
+      <c r="D25" t="s">
+        <v>136</v>
+      </c>
+      <c r="E25" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>138</v>
+      </c>
+      <c r="B26" t="s">
+        <v>138</v>
+      </c>
+      <c r="C26" t="s">
+        <v>114</v>
+      </c>
+      <c r="D26" t="s">
+        <v>139</v>
+      </c>
+      <c r="E26" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>138</v>
+      </c>
+      <c r="B27" t="s">
+        <v>138</v>
+      </c>
+      <c r="C27" t="s">
+        <v>114</v>
+      </c>
+      <c r="D27" t="s">
+        <v>139</v>
+      </c>
+      <c r="E27" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>138</v>
+      </c>
+      <c r="B28" t="s">
+        <v>138</v>
+      </c>
+      <c r="C28" t="s">
+        <v>114</v>
+      </c>
+      <c r="D28" t="s">
+        <v>139</v>
+      </c>
+      <c r="E28" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>138</v>
+      </c>
+      <c r="B29" t="s">
+        <v>138</v>
+      </c>
+      <c r="C29" t="s">
+        <v>114</v>
+      </c>
+      <c r="D29" t="s">
+        <v>139</v>
+      </c>
+      <c r="E29" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>138</v>
+      </c>
+      <c r="B30" t="s">
+        <v>138</v>
+      </c>
+      <c r="C30" t="s">
+        <v>114</v>
+      </c>
+      <c r="D30" t="s">
+        <v>139</v>
+      </c>
+      <c r="E30" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>140</v>
+      </c>
+      <c r="B31" t="s">
+        <v>140</v>
+      </c>
+      <c r="C31" t="s">
+        <v>114</v>
+      </c>
+      <c r="D31" t="s">
+        <v>141</v>
+      </c>
+      <c r="E31" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>140</v>
+      </c>
+      <c r="B32" t="s">
+        <v>140</v>
+      </c>
+      <c r="C32" t="s">
+        <v>114</v>
+      </c>
+      <c r="D32" t="s">
+        <v>141</v>
+      </c>
+      <c r="E32" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>143</v>
+      </c>
+      <c r="B33" t="s">
+        <v>143</v>
+      </c>
+      <c r="C33" t="s">
+        <v>114</v>
+      </c>
+      <c r="D33" t="s">
+        <v>144</v>
+      </c>
+      <c r="E33" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>143</v>
+      </c>
+      <c r="B34" t="s">
+        <v>143</v>
+      </c>
+      <c r="C34" t="s">
+        <v>114</v>
+      </c>
+      <c r="D34" t="s">
+        <v>144</v>
+      </c>
+      <c r="E34" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>143</v>
+      </c>
+      <c r="B35" t="s">
+        <v>143</v>
+      </c>
+      <c r="C35" t="s">
+        <v>114</v>
+      </c>
+      <c r="D35" t="s">
+        <v>144</v>
+      </c>
+      <c r="E35" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>143</v>
+      </c>
+      <c r="B36" t="s">
+        <v>143</v>
+      </c>
+      <c r="C36" t="s">
+        <v>114</v>
+      </c>
+      <c r="D36" t="s">
+        <v>144</v>
+      </c>
+      <c r="E36" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>146</v>
+      </c>
+      <c r="B37" t="s">
+        <v>146</v>
+      </c>
+      <c r="C37" t="s">
+        <v>114</v>
+      </c>
+      <c r="D37" t="s">
+        <v>147</v>
+      </c>
+      <c r="E37" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>148</v>
+      </c>
+      <c r="B38" t="s">
+        <v>149</v>
+      </c>
+      <c r="C38" t="s">
+        <v>150</v>
+      </c>
+      <c r="D38" t="s">
+        <v>151</v>
+      </c>
+      <c r="E38" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>148</v>
+      </c>
+      <c r="B39" t="s">
+        <v>149</v>
+      </c>
+      <c r="C39" t="s">
+        <v>150</v>
+      </c>
+      <c r="D39" t="s">
+        <v>151</v>
+      </c>
+      <c r="E39" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>148</v>
+      </c>
+      <c r="B40" t="s">
+        <v>149</v>
+      </c>
+      <c r="C40" t="s">
+        <v>150</v>
+      </c>
+      <c r="D40" t="s">
+        <v>151</v>
+      </c>
+      <c r="E40" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>148</v>
+      </c>
+      <c r="B41" t="s">
+        <v>149</v>
+      </c>
+      <c r="C41" t="s">
+        <v>150</v>
+      </c>
+      <c r="D41" t="s">
+        <v>151</v>
+      </c>
+      <c r="E41" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>148</v>
+      </c>
+      <c r="B42" t="s">
+        <v>149</v>
+      </c>
+      <c r="C42" t="s">
+        <v>150</v>
+      </c>
+      <c r="D42" t="s">
+        <v>151</v>
+      </c>
+      <c r="E42" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
         <v>153</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B43" t="s">
         <v>153</v>
       </c>
-      <c r="C15"/>
-      <c r="D15" t="s">
+      <c r="C43" t="s">
+        <v>114</v>
+      </c>
+      <c r="D43" t="s">
         <v>154</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E43" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>153</v>
+      </c>
+      <c r="B44" t="s">
+        <v>153</v>
+      </c>
+      <c r="C44" t="s">
+        <v>114</v>
+      </c>
+      <c r="D44" t="s">
+        <v>154</v>
+      </c>
+      <c r="E44" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>153</v>
+      </c>
+      <c r="B45" t="s">
+        <v>153</v>
+      </c>
+      <c r="C45" t="s">
+        <v>114</v>
+      </c>
+      <c r="D45" t="s">
+        <v>154</v>
+      </c>
+      <c r="E45" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>153</v>
+      </c>
+      <c r="B46" t="s">
+        <v>153</v>
+      </c>
+      <c r="C46" t="s">
+        <v>114</v>
+      </c>
+      <c r="D46" t="s">
+        <v>154</v>
+      </c>
+      <c r="E46" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>153</v>
+      </c>
+      <c r="B47" t="s">
+        <v>153</v>
+      </c>
+      <c r="C47" t="s">
+        <v>114</v>
+      </c>
+      <c r="D47" t="s">
+        <v>154</v>
+      </c>
+      <c r="E47" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>153</v>
+      </c>
+      <c r="B48" t="s">
+        <v>153</v>
+      </c>
+      <c r="C48" t="s">
+        <v>114</v>
+      </c>
+      <c r="D48" t="s">
+        <v>154</v>
+      </c>
+      <c r="E48" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>153</v>
+      </c>
+      <c r="B49" t="s">
+        <v>153</v>
+      </c>
+      <c r="C49" t="s">
+        <v>114</v>
+      </c>
+      <c r="D49" t="s">
+        <v>154</v>
+      </c>
+      <c r="E49" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>153</v>
+      </c>
+      <c r="B50" t="s">
+        <v>153</v>
+      </c>
+      <c r="C50" t="s">
+        <v>114</v>
+      </c>
+      <c r="D50" t="s">
+        <v>154</v>
+      </c>
+      <c r="E50" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>153</v>
+      </c>
+      <c r="B51" t="s">
+        <v>153</v>
+      </c>
+      <c r="C51" t="s">
+        <v>114</v>
+      </c>
+      <c r="D51" t="s">
+        <v>154</v>
+      </c>
+      <c r="E51" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>153</v>
+      </c>
+      <c r="B52" t="s">
+        <v>153</v>
+      </c>
+      <c r="C52" t="s">
+        <v>114</v>
+      </c>
+      <c r="D52" t="s">
+        <v>154</v>
+      </c>
+      <c r="E52" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>153</v>
+      </c>
+      <c r="B53" t="s">
+        <v>153</v>
+      </c>
+      <c r="C53" t="s">
+        <v>114</v>
+      </c>
+      <c r="D53" t="s">
+        <v>154</v>
+      </c>
+      <c r="E53" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>153</v>
+      </c>
+      <c r="B54" t="s">
+        <v>153</v>
+      </c>
+      <c r="C54" t="s">
+        <v>114</v>
+      </c>
+      <c r="D54" t="s">
+        <v>154</v>
+      </c>
+      <c r="E54" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>153</v>
+      </c>
+      <c r="B55" t="s">
+        <v>153</v>
+      </c>
+      <c r="C55" t="s">
+        <v>114</v>
+      </c>
+      <c r="D55" t="s">
+        <v>154</v>
+      </c>
+      <c r="E55" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>153</v>
+      </c>
+      <c r="B56" t="s">
+        <v>153</v>
+      </c>
+      <c r="C56" t="s">
+        <v>114</v>
+      </c>
+      <c r="D56" t="s">
+        <v>154</v>
+      </c>
+      <c r="E56" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>153</v>
+      </c>
+      <c r="B57" t="s">
+        <v>153</v>
+      </c>
+      <c r="C57" t="s">
+        <v>114</v>
+      </c>
+      <c r="D57" t="s">
+        <v>154</v>
+      </c>
+      <c r="E57" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>153</v>
+      </c>
+      <c r="B58" t="s">
+        <v>153</v>
+      </c>
+      <c r="C58" t="s">
+        <v>114</v>
+      </c>
+      <c r="D58" t="s">
+        <v>154</v>
+      </c>
+      <c r="E58" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>153</v>
+      </c>
+      <c r="B59" t="s">
+        <v>153</v>
+      </c>
+      <c r="C59" t="s">
+        <v>114</v>
+      </c>
+      <c r="D59" t="s">
+        <v>154</v>
+      </c>
+      <c r="E59" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>153</v>
+      </c>
+      <c r="B60" t="s">
+        <v>153</v>
+      </c>
+      <c r="C60" t="s">
+        <v>114</v>
+      </c>
+      <c r="D60" t="s">
+        <v>154</v>
+      </c>
+      <c r="E60" t="s">
         <v>155</v>
       </c>
     </row>
@@ -2177,7 +2976,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2">
@@ -2187,7 +2986,9 @@
       <c r="B2" t="s">
         <v>156</v>
       </c>
-      <c r="C2"/>
+      <c r="C2" t="s">
+        <v>114</v>
+      </c>
       <c r="D2" t="s">
         <v>157</v>
       </c>
@@ -2202,7 +3003,9 @@
       <c r="B3" t="s">
         <v>160</v>
       </c>
-      <c r="C3"/>
+      <c r="C3" t="s">
+        <v>114</v>
+      </c>
       <c r="D3" t="s">
         <v>161</v>
       </c>
@@ -2217,7 +3020,9 @@
       <c r="B4" t="s">
         <v>164</v>
       </c>
-      <c r="C4"/>
+      <c r="C4" t="s">
+        <v>114</v>
+      </c>
       <c r="D4" t="s">
         <v>165</v>
       </c>
@@ -2232,11 +3037,15 @@
       <c r="B5" t="s">
         <v>168</v>
       </c>
-      <c r="C5"/>
+      <c r="C5" t="s">
+        <v>114</v>
+      </c>
       <c r="D5" t="s">
         <v>169</v>
       </c>
-      <c r="E5"/>
+      <c r="E5" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -2245,11 +3054,15 @@
       <c r="B6" t="s">
         <v>171</v>
       </c>
-      <c r="C6"/>
+      <c r="C6" t="s">
+        <v>114</v>
+      </c>
       <c r="D6" t="s">
         <v>172</v>
       </c>
-      <c r="E6"/>
+      <c r="E6" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -2258,7 +3071,9 @@
       <c r="B7" t="s">
         <v>174</v>
       </c>
-      <c r="C7"/>
+      <c r="C7" t="s">
+        <v>114</v>
+      </c>
       <c r="D7" t="s">
         <v>175</v>
       </c>
@@ -2273,11 +3088,15 @@
       <c r="B8" t="s">
         <v>178</v>
       </c>
-      <c r="C8"/>
+      <c r="C8" t="s">
+        <v>114</v>
+      </c>
       <c r="D8" t="s">
         <v>179</v>
       </c>
-      <c r="E8"/>
+      <c r="E8" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -2286,7 +3105,9 @@
       <c r="B9" t="s">
         <v>181</v>
       </c>
-      <c r="C9"/>
+      <c r="C9" t="s">
+        <v>114</v>
+      </c>
       <c r="D9" t="s">
         <v>182</v>
       </c>
@@ -2301,7 +3122,9 @@
       <c r="B10" t="s">
         <v>185</v>
       </c>
-      <c r="C10"/>
+      <c r="C10" t="s">
+        <v>114</v>
+      </c>
       <c r="D10" t="s">
         <v>186</v>
       </c>
@@ -2316,7 +3139,9 @@
       <c r="B11" t="s">
         <v>189</v>
       </c>
-      <c r="C11"/>
+      <c r="C11" t="s">
+        <v>114</v>
+      </c>
       <c r="D11" t="s">
         <v>190</v>
       </c>
@@ -2331,11 +3156,15 @@
       <c r="B12" t="s">
         <v>192</v>
       </c>
-      <c r="C12"/>
+      <c r="C12" t="s">
+        <v>114</v>
+      </c>
       <c r="D12" t="s">
         <v>193</v>
       </c>
-      <c r="E12"/>
+      <c r="E12" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -2350,7 +3179,9 @@
       <c r="D13" t="s">
         <v>197</v>
       </c>
-      <c r="E13"/>
+      <c r="E13" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -2359,11 +3190,15 @@
       <c r="B14" t="s">
         <v>198</v>
       </c>
-      <c r="C14"/>
+      <c r="C14" t="s">
+        <v>114</v>
+      </c>
       <c r="D14" t="s">
         <v>199</v>
       </c>
-      <c r="E14"/>
+      <c r="E14" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -2372,7 +3207,9 @@
       <c r="B15" t="s">
         <v>201</v>
       </c>
-      <c r="C15"/>
+      <c r="C15" t="s">
+        <v>114</v>
+      </c>
       <c r="D15" t="s">
         <v>202</v>
       </c>
@@ -2387,11 +3224,15 @@
       <c r="B16" t="s">
         <v>204</v>
       </c>
-      <c r="C16"/>
+      <c r="C16" t="s">
+        <v>114</v>
+      </c>
       <c r="D16" t="s">
         <v>205</v>
       </c>
-      <c r="E16"/>
+      <c r="E16" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -2400,7 +3241,9 @@
       <c r="B17" t="s">
         <v>207</v>
       </c>
-      <c r="C17"/>
+      <c r="C17" t="s">
+        <v>114</v>
+      </c>
       <c r="D17" t="s">
         <v>208</v>
       </c>
@@ -2415,11 +3258,15 @@
       <c r="B18" t="s">
         <v>211</v>
       </c>
-      <c r="C18"/>
+      <c r="C18" t="s">
+        <v>114</v>
+      </c>
       <c r="D18" t="s">
         <v>212</v>
       </c>
-      <c r="E18"/>
+      <c r="E18" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -2445,7 +3292,9 @@
       <c r="B20" t="s">
         <v>219</v>
       </c>
-      <c r="C20"/>
+      <c r="C20" t="s">
+        <v>114</v>
+      </c>
       <c r="D20" t="s">
         <v>220</v>
       </c>
@@ -2460,7 +3309,9 @@
       <c r="B21" t="s">
         <v>223</v>
       </c>
-      <c r="C21"/>
+      <c r="C21" t="s">
+        <v>114</v>
+      </c>
       <c r="D21" t="s">
         <v>224</v>
       </c>
@@ -2475,7 +3326,9 @@
       <c r="B22" t="s">
         <v>227</v>
       </c>
-      <c r="C22"/>
+      <c r="C22" t="s">
+        <v>114</v>
+      </c>
       <c r="D22" t="s">
         <v>228</v>
       </c>
@@ -2490,7 +3343,9 @@
       <c r="B23" t="s">
         <v>230</v>
       </c>
-      <c r="C23"/>
+      <c r="C23" t="s">
+        <v>114</v>
+      </c>
       <c r="D23" t="s">
         <v>231</v>
       </c>
@@ -2505,7 +3360,9 @@
       <c r="B24" t="s">
         <v>234</v>
       </c>
-      <c r="C24"/>
+      <c r="C24" t="s">
+        <v>114</v>
+      </c>
       <c r="D24" t="s">
         <v>235</v>
       </c>
@@ -2520,11 +3377,15 @@
       <c r="B25" t="s">
         <v>237</v>
       </c>
-      <c r="C25"/>
+      <c r="C25" t="s">
+        <v>114</v>
+      </c>
       <c r="D25" t="s">
         <v>238</v>
       </c>
-      <c r="E25"/>
+      <c r="E25" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
@@ -2550,11 +3411,15 @@
       <c r="B27" t="s">
         <v>244</v>
       </c>
-      <c r="C27"/>
+      <c r="C27" t="s">
+        <v>114</v>
+      </c>
       <c r="D27" t="s">
         <v>245</v>
       </c>
-      <c r="E27"/>
+      <c r="E27" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
@@ -2563,7 +3428,9 @@
       <c r="B28" t="s">
         <v>247</v>
       </c>
-      <c r="C28"/>
+      <c r="C28" t="s">
+        <v>114</v>
+      </c>
       <c r="D28" t="s">
         <v>248</v>
       </c>
@@ -2595,7 +3462,9 @@
       <c r="B30" t="s">
         <v>256</v>
       </c>
-      <c r="C30"/>
+      <c r="C30" t="s">
+        <v>114</v>
+      </c>
       <c r="D30" t="s">
         <v>257</v>
       </c>
@@ -2610,11 +3479,15 @@
       <c r="B31" t="s">
         <v>260</v>
       </c>
-      <c r="C31"/>
+      <c r="C31" t="s">
+        <v>114</v>
+      </c>
       <c r="D31" t="s">
         <v>261</v>
       </c>
-      <c r="E31"/>
+      <c r="E31" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
@@ -2623,11 +3496,15 @@
       <c r="B32" t="s">
         <v>262</v>
       </c>
-      <c r="C32"/>
+      <c r="C32" t="s">
+        <v>114</v>
+      </c>
       <c r="D32" t="s">
         <v>263</v>
       </c>
-      <c r="E32"/>
+      <c r="E32" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
@@ -2636,11 +3513,15 @@
       <c r="B33" t="s">
         <v>264</v>
       </c>
-      <c r="C33"/>
+      <c r="C33" t="s">
+        <v>114</v>
+      </c>
       <c r="D33" t="s">
         <v>265</v>
       </c>
-      <c r="E33"/>
+      <c r="E33" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
@@ -2649,11 +3530,15 @@
       <c r="B34" t="s">
         <v>267</v>
       </c>
-      <c r="C34"/>
+      <c r="C34" t="s">
+        <v>114</v>
+      </c>
       <c r="D34" t="s">
         <v>268</v>
       </c>
-      <c r="E34"/>
+      <c r="E34" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
@@ -2679,7 +3564,9 @@
       <c r="B36" t="s">
         <v>274</v>
       </c>
-      <c r="C36"/>
+      <c r="C36" t="s">
+        <v>114</v>
+      </c>
       <c r="D36" t="s">
         <v>275</v>
       </c>
@@ -2694,11 +3581,15 @@
       <c r="B37" t="s">
         <v>277</v>
       </c>
-      <c r="C37"/>
+      <c r="C37" t="s">
+        <v>114</v>
+      </c>
       <c r="D37" t="s">
         <v>278</v>
       </c>
-      <c r="E37"/>
+      <c r="E37" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
@@ -2707,11 +3598,15 @@
       <c r="B38" t="s">
         <v>280</v>
       </c>
-      <c r="C38"/>
+      <c r="C38" t="s">
+        <v>114</v>
+      </c>
       <c r="D38" t="s">
         <v>281</v>
       </c>
-      <c r="E38"/>
+      <c r="E38" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
@@ -2743,7 +3638,9 @@
       <c r="D40" t="s">
         <v>290</v>
       </c>
-      <c r="E40"/>
+      <c r="E40" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
@@ -2752,11 +3649,15 @@
       <c r="B41" t="s">
         <v>292</v>
       </c>
-      <c r="C41"/>
+      <c r="C41" t="s">
+        <v>114</v>
+      </c>
       <c r="D41" t="s">
         <v>293</v>
       </c>
-      <c r="E41"/>
+      <c r="E41" t="s">
+        <v>114</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2786,7 +3687,7 @@
         <v>111</v>
       </c>
       <c r="E1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2">
@@ -2799,7 +3700,9 @@
       <c r="C2" t="s">
         <v>296</v>
       </c>
-      <c r="D2"/>
+      <c r="D2" t="s">
+        <v>114</v>
+      </c>
       <c r="E2" t="s">
         <v>297</v>
       </c>
@@ -2814,8 +3717,12 @@
       <c r="C3" t="s">
         <v>300</v>
       </c>
-      <c r="D3"/>
-      <c r="E3"/>
+      <c r="D3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E3" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -2827,7 +3734,9 @@
       <c r="C4" t="s">
         <v>303</v>
       </c>
-      <c r="D4"/>
+      <c r="D4" t="s">
+        <v>114</v>
+      </c>
       <c r="E4" t="s">
         <v>304</v>
       </c>
@@ -2842,8 +3751,12 @@
       <c r="C5" t="s">
         <v>306</v>
       </c>
-      <c r="D5"/>
-      <c r="E5"/>
+      <c r="D5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E5" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -2855,8 +3768,12 @@
       <c r="C6" t="s">
         <v>308</v>
       </c>
-      <c r="D6"/>
-      <c r="E6"/>
+      <c r="D6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E6" t="s">
+        <v>114</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
